--- a/2. Proyectos/1. Interpreta Chile/01 Instagram - Proyectos/instagram scraper/url/scrappin_fase_1.xlsx
+++ b/2. Proyectos/1. Interpreta Chile/01 Instagram - Proyectos/instagram scraper/url/scrappin_fase_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10803"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Proyectos Programacion/Vault - Github/2. Proyectos/1. Interpreta Chile/01 Instagram - Proyectos/instagram scraper/url/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josealonsoordinolaaucca/Documents/Documentos/Vault/Vault/2. Proyectos/1. Interpreta Chile/01 Instagram - Proyectos/instagram scraper/url/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD52583F-DBDD-974C-9172-A4F13200B483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F706A977-959B-C34D-8B9F-23D007143F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Perfiles candidata y adversario" sheetId="1" r:id="rId1"/>
@@ -558,17 +558,6 @@
     <t>Debate Jara 1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Encuentra 'jara' en TikTok | Busca contenido en TikTok</t>
-    </r>
-  </si>
-  <si>
     <t>Debate Jara 2</t>
   </si>
   <si>
@@ -579,13 +568,16 @@
   </si>
   <si>
     <t>https://www.tiktok.com/@matiastlsanchez/video/7533285823022714117?is_from_webapp=1&amp;sender_device=pc&amp;web_id=7512456430499235334</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@jaranosune2026/video/7529969172068011320?q=jara&amp;t=1754324776003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -617,14 +609,8 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -649,6 +635,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -662,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -688,6 +680,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -917,8 +912,8 @@
   </sheetPr>
   <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A122" zoomScale="116" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129:C159"/>
+    <sheetView showGridLines="0" topLeftCell="A115" zoomScale="116" workbookViewId="0">
+      <selection activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2255,16 +2250,16 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A122" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C122" s="3" t="s">
+      <c r="A122" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" s="16" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2854,9 +2849,14 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="43" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
@@ -2878,32 +2878,31 @@
       <c r="A3" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>173</v>
+      <c r="B3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
